--- a/biology/Médecine/Ludwig_Gross/Ludwig_Gross.xlsx
+++ b/biology/Médecine/Ludwig_Gross/Ludwig_Gross.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludwig Gross (11 septembre 1904 à Cracovie, mort le 19 juillet 1999 à New York) est un médecin et chercheur en cancérologie américain. 
 Les expériences que Gross a mené sur les souris dans les années 1950 ont montré que la leucémie était susceptible d'être provoquée par un virus ; ses travaux ont été pionniers dans les recherches sur le rôle des virus dans le cancer. 
@@ -512,7 +524,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1953 : R.R. de Villiers Foundation (Leukemia Society) Award pour la recherche de la leucémie.
 1961 : Walker Prize of the Royal College of Surgeons of England à Londres.
